--- a/case 2/dialpad.xlsx
+++ b/case 2/dialpad.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="21">
   <si>
     <t>Test Case</t>
   </si>
@@ -22,9 +22,6 @@
     <t>Input</t>
   </si>
   <si>
-    <t>Output</t>
-  </si>
-  <si>
     <t>Result</t>
   </si>
   <si>
@@ -47,6 +44,39 @@
   </si>
   <si>
     <t>#$</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>passing 1 and 0</t>
+  </si>
+  <si>
+    <t>passing string</t>
+  </si>
+  <si>
+    <t>passing b/w 2-9</t>
+  </si>
+  <si>
+    <t>passing some characters</t>
+  </si>
+  <si>
+    <t>Expected Output</t>
+  </si>
+  <si>
+    <t>a b c</t>
+  </si>
+  <si>
+    <t>Actual Output</t>
+  </si>
+  <si>
+    <t>with negative input</t>
+  </si>
+  <si>
+    <t>empty list</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[] </t>
   </si>
 </sst>
 </file>
@@ -388,65 +418,86 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="23.42578125" customWidth="1"/>
+    <col min="2" max="2" width="24.140625" customWidth="1"/>
+    <col min="3" max="3" width="6.85546875" customWidth="1"/>
+    <col min="4" max="4" width="22.85546875" customWidth="1"/>
+    <col min="5" max="5" width="23.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2">
+      <c r="B2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2">
         <v>210</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" t="s">
         <v>4</v>
       </c>
-      <c r="D2" t="s">
-        <v>5</v>
-      </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3">
+      <c r="B3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3">
         <v>23</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" t="s">
         <v>6</v>
       </c>
-      <c r="D3" t="s">
-        <v>7</v>
-      </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C4" t="s">
         <v>8</v>
@@ -454,19 +505,51 @@
       <c r="D4" t="s">
         <v>7</v>
       </c>
+      <c r="E4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D5" t="s">
         <v>7</v>
+      </c>
+      <c r="E5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6">
+        <v>-23</v>
+      </c>
+      <c r="D6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F6" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/case 2/dialpad.xlsx
+++ b/case 2/dialpad.xlsx
@@ -509,7 +509,7 @@
         <v>7</v>
       </c>
       <c r="F4" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -529,7 +529,7 @@
         <v>7</v>
       </c>
       <c r="F5" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -549,7 +549,7 @@
         <v>20</v>
       </c>
       <c r="F6" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/case 2/dialpad.xlsx
+++ b/case 2/dialpad.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="20">
   <si>
     <t>Test Case</t>
   </si>
@@ -37,9 +37,6 @@
     <t>PASS</t>
   </si>
   <si>
-    <t>""</t>
-  </si>
-  <si>
     <t xml:space="preserve"> sdd</t>
   </si>
   <si>
@@ -73,10 +70,10 @@
     <t>with negative input</t>
   </si>
   <si>
-    <t>empty list</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[] </t>
+    <t>with expression</t>
+  </si>
+  <si>
+    <t>2+3</t>
   </si>
 </sst>
 </file>
@@ -418,10 +415,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -437,16 +434,16 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F1" t="s">
         <v>2</v>
@@ -457,13 +454,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C2">
         <v>210</v>
       </c>
       <c r="D2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E2" t="s">
         <v>3</v>
@@ -477,7 +474,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C3">
         <v>23</v>
@@ -497,16 +494,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D4" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="F4" t="s">
         <v>4</v>
@@ -517,16 +514,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D5" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E5" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="F5" t="s">
         <v>4</v>
@@ -537,18 +534,38 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C6">
         <v>-23</v>
       </c>
       <c r="D6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E6" t="s">
+        <v>3</v>
+      </c>
+      <c r="F6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" t="s">
         <v>19</v>
       </c>
-      <c r="E6" t="s">
-        <v>20</v>
-      </c>
-      <c r="F6" t="s">
+      <c r="D7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E7" t="s">
+        <v>3</v>
+      </c>
+      <c r="F7" t="s">
         <v>4</v>
       </c>
     </row>
